--- a/app/assets/docs/basic-accessibility-checks.xlsx
+++ b/app/assets/docs/basic-accessibility-checks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/craig.abbott/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/craig.abbott/projects/accessibility-manual/app/assets/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB94E91-72C5-0240-956E-65BA9430C345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EF2A57-309B-B44D-B7A8-CC25986B7CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21000" activeTab="1" xr2:uid="{92B0CFD0-8031-F343-AD23-EFFBE191E883}"/>
   </bookViews>
@@ -123,9 +123,6 @@
     <t>Headings and labels are clear and descriptive</t>
   </si>
   <si>
-    <t>Page has a H1, but not more than 1</t>
-  </si>
-  <si>
     <t>No heading levels have been skipped</t>
   </si>
   <si>
@@ -145,12 +142,6 @@
   </si>
   <si>
     <t>No broken or internal-only links</t>
-  </si>
-  <si>
-    <t>Navigation menus on more than 1 page are in the same order</t>
-  </si>
-  <si>
-    <t>Buttons on more than 1 page are labelled consistently</t>
   </si>
   <si>
     <t>Button icons have a text alternative</t>
@@ -418,6 +409,15 @@
   </si>
   <si>
     <t>Any field which causes a validation error is easy to identify</t>
+  </si>
+  <si>
+    <t>Page has a H1, but not more than one</t>
+  </si>
+  <si>
+    <t>Navigation menus on more than one page are in the same order</t>
+  </si>
+  <si>
+    <t>Buttons on more than one page are labelled consistently</t>
   </si>
 </sst>
 </file>
@@ -726,12 +726,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -753,4563 +747,19 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1110">
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="2" tint="-0.749961851863155"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="655">
     <dxf>
       <font>
         <color theme="2" tint="-0.749961851863155"/>
@@ -12178,43 +7628,43 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="118.33203125" style="23" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="23"/>
+    <col min="1" max="1" width="118.33203125" style="21" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="32" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="337" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="73" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="25" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="25" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="25" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="25" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="337" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="73" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="25" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="25" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="25" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="25" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -12230,11 +7680,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CBF950-204A-9043-8C84-2C43440F63DD}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61.83203125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="66.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.1640625" style="13" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="11" customWidth="1"/>
     <col min="4" max="4" width="51.33203125" style="9" bestFit="1" customWidth="1"/>
@@ -12248,50 +7700,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="18"/>
+      <c r="A1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F1" s="25"/>
+      <c r="G1" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="25"/>
       <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I2" s="7"/>
     </row>
@@ -12303,14 +7755,14 @@
         <v>11</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="20" x14ac:dyDescent="0.2">
@@ -12321,14 +7773,14 @@
         <v>12</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H4" s="9"/>
     </row>
@@ -12340,14 +7792,14 @@
         <v>12</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H5" s="9"/>
     </row>
@@ -12359,40 +7811,40 @@
         <v>12</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I7" s="7"/>
     </row>
@@ -12404,32 +7856,32 @@
         <v>6</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H9" s="9"/>
     </row>
@@ -12441,14 +7893,14 @@
         <v>5</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H10" s="9"/>
     </row>
@@ -12460,41 +7912,41 @@
         <v>4</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:9" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I12" s="7"/>
     </row>
@@ -12506,14 +7958,14 @@
         <v>18</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F13" s="12"/>
       <c r="G13" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="20" x14ac:dyDescent="0.2">
@@ -12524,14 +7976,14 @@
         <v>19</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F14" s="12"/>
       <c r="G14" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="20" x14ac:dyDescent="0.2">
@@ -12542,14 +7994,14 @@
         <v>20</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="20" x14ac:dyDescent="0.2">
@@ -12560,14 +8012,14 @@
         <v>21</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20" x14ac:dyDescent="0.2">
@@ -12578,771 +8030,771 @@
         <v>22</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>29</v>
+      <c r="A21" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F21" s="12"/>
       <c r="G21" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
-        <v>30</v>
+      <c r="A22" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
-        <v>28</v>
+      <c r="A23" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
-        <v>31</v>
+      <c r="A25" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:9" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I26" s="7"/>
     </row>
     <row r="27" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>124</v>
+      <c r="A27" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="C28" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:9" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>34</v>
+      <c r="A30" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F30" s="12"/>
       <c r="G30" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
-        <v>35</v>
+      <c r="A31" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
-        <v>36</v>
+      <c r="A32" s="17" t="s">
+        <v>124</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
-        <v>37</v>
+      <c r="A33" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F33" s="12"/>
       <c r="G33" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
-        <v>38</v>
+      <c r="A34" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F34" s="12"/>
       <c r="G34" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
-        <v>39</v>
+      <c r="A35" s="17" t="s">
+        <v>36</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I36" s="7"/>
     </row>
     <row r="37" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F37" s="12"/>
       <c r="G37" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
-        <v>113</v>
+      <c r="A38" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F38" s="12"/>
       <c r="G38" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
-        <v>114</v>
+      <c r="A39" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
-        <v>115</v>
+      <c r="A40" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
-        <v>45</v>
+      <c r="A41" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F41" s="12"/>
       <c r="G41" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
-        <v>46</v>
+      <c r="A42" s="17" t="s">
+        <v>43</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F42" s="12"/>
       <c r="G42" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I43" s="7"/>
     </row>
     <row r="44" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="C44" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F44" s="12"/>
       <c r="G44" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
-        <v>50</v>
+      <c r="A45" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F45" s="12"/>
       <c r="G45" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
-        <v>51</v>
+      <c r="A46" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F46" s="12"/>
       <c r="G46" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I47" s="7"/>
     </row>
     <row r="48" spans="1:9" ht="20" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F48" s="9"/>
       <c r="G48" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="1:9" ht="40" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
-        <v>63</v>
+    <row r="49" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="s">
+        <v>60</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H49" s="9"/>
     </row>
     <row r="50" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
-        <v>57</v>
+      <c r="A50" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="1:9" ht="40" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
-        <v>58</v>
+    <row r="51" spans="1:9" ht="20" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H51" s="9"/>
     </row>
     <row r="52" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
-        <v>59</v>
+      <c r="A52" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F52" s="9"/>
       <c r="G52" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
-        <v>116</v>
+      <c r="A53" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="8" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H54" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I54" s="7"/>
     </row>
     <row r="55" spans="1:9" ht="20" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
-        <v>61</v>
+      <c r="A55" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -13369,563 +8821,563 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="C52">
-    <cfRule type="containsText" dxfId="1059" priority="1056" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="654" priority="1056" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1058" priority="1057" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="653" priority="1057" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1057" priority="1058" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="652" priority="1058" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1056" priority="1059" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="651" priority="1059" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1055" priority="1060" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="650" priority="1060" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C51">
-    <cfRule type="containsText" dxfId="1054" priority="1051" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="649" priority="1051" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1053" priority="1052" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="648" priority="1052" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1052" priority="1053" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="647" priority="1053" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1051" priority="1054" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="646" priority="1054" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1050" priority="1055" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="645" priority="1055" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="containsText" dxfId="1049" priority="1046" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="644" priority="1046" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1048" priority="1047" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="643" priority="1047" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1047" priority="1048" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="642" priority="1048" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1046" priority="1049" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="641" priority="1049" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1045" priority="1050" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="640" priority="1050" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="containsText" dxfId="1044" priority="1041" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="639" priority="1041" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1043" priority="1042" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="638" priority="1042" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1042" priority="1043" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="637" priority="1043" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1041" priority="1044" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="636" priority="1044" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1040" priority="1045" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="635" priority="1045" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="containsText" dxfId="1039" priority="1036" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="634" priority="1036" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1038" priority="1037" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="633" priority="1037" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1037" priority="1038" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="632" priority="1038" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1036" priority="1039" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="631" priority="1039" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1035" priority="1040" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="630" priority="1040" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="904" priority="901" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="629" priority="901" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="903" priority="902" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="628" priority="902" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="902" priority="903" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="627" priority="903" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="901" priority="904" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="626" priority="904" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="900" priority="905" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="625" priority="905" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="containsText" dxfId="689" priority="686" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="624" priority="686" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="688" priority="687" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="623" priority="687" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="687" priority="688" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="622" priority="688" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="686" priority="689" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="621" priority="689" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="685" priority="690" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="620" priority="690" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="containsText" dxfId="684" priority="681" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="619" priority="681" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="683" priority="682" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="618" priority="682" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="682" priority="683" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="617" priority="683" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="681" priority="684" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="616" priority="684" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="680" priority="685" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="615" priority="685" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="containsText" dxfId="679" priority="676" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="614" priority="676" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="678" priority="677" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="613" priority="677" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="677" priority="678" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="612" priority="678" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="676" priority="679" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="611" priority="679" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="675" priority="680" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="610" priority="680" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="674" priority="671" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="609" priority="671" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="673" priority="672" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="608" priority="672" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="672" priority="673" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="607" priority="673" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="671" priority="674" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="606" priority="674" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="670" priority="675" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="605" priority="675" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="669" priority="666" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="604" priority="666" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="668" priority="667" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="603" priority="667" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="667" priority="668" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="602" priority="668" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="666" priority="669" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="601" priority="669" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="665" priority="670" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="600" priority="670" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="containsText" dxfId="664" priority="661" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="599" priority="661" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="663" priority="662" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="598" priority="662" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="662" priority="663" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="597" priority="663" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="661" priority="664" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="596" priority="664" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="660" priority="665" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="595" priority="665" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="659" priority="656" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="594" priority="656" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="658" priority="657" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="593" priority="657" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="657" priority="658" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="592" priority="658" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="656" priority="659" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="591" priority="659" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="655" priority="660" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="590" priority="660" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="654" priority="651" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="589" priority="651" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="653" priority="652" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="588" priority="652" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="652" priority="653" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="587" priority="653" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="651" priority="654" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="586" priority="654" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="650" priority="655" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="585" priority="655" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="649" priority="646" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="584" priority="646" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="648" priority="647" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="583" priority="647" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="647" priority="648" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="582" priority="648" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="646" priority="649" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="581" priority="649" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="645" priority="650" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="580" priority="650" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="634" priority="631" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="579" priority="631" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="633" priority="632" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="578" priority="632" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="632" priority="633" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="577" priority="633" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="631" priority="634" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="576" priority="634" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="630" priority="635" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="575" priority="635" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="629" priority="626" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="574" priority="626" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="628" priority="627" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="573" priority="627" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="627" priority="628" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="572" priority="628" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="626" priority="629" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="571" priority="629" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="625" priority="630" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="570" priority="630" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="624" priority="621" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="569" priority="621" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="623" priority="622" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="568" priority="622" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="622" priority="623" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="567" priority="623" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="621" priority="624" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="566" priority="624" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="620" priority="625" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="565" priority="625" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C19">
-    <cfRule type="containsText" dxfId="619" priority="616" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="564" priority="616" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="618" priority="617" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="563" priority="617" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="617" priority="618" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="562" priority="618" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="616" priority="619" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="561" priority="619" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="615" priority="620" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="560" priority="620" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="614" priority="611" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="559" priority="611" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="613" priority="612" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="558" priority="612" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="612" priority="613" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="557" priority="613" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="611" priority="614" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="556" priority="614" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="610" priority="615" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="555" priority="615" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="containsText" dxfId="594" priority="591" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="554" priority="591" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="593" priority="592" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="553" priority="592" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="592" priority="593" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="552" priority="593" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="591" priority="594" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="551" priority="594" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="590" priority="595" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="550" priority="595" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="containsText" dxfId="589" priority="586" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="549" priority="586" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="588" priority="587" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="548" priority="587" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="587" priority="588" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="547" priority="588" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="586" priority="589" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="546" priority="589" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="585" priority="590" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="545" priority="590" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="584" priority="581" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="544" priority="581" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="583" priority="582" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="543" priority="582" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="582" priority="583" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="542" priority="583" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="581" priority="584" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="541" priority="584" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="580" priority="585" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="540" priority="585" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="579" priority="576" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="539" priority="576" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="578" priority="577" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="538" priority="577" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="577" priority="578" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="537" priority="578" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="576" priority="579" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="536" priority="579" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="575" priority="580" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="535" priority="580" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="containsText" dxfId="574" priority="571" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="534" priority="571" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="573" priority="572" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="533" priority="572" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="572" priority="573" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="532" priority="573" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="571" priority="574" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="531" priority="574" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="570" priority="575" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="530" priority="575" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="containsText" dxfId="569" priority="566" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="529" priority="566" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="568" priority="567" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="528" priority="567" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="567" priority="568" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="527" priority="568" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="566" priority="569" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="526" priority="569" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="565" priority="570" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="525" priority="570" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C30">
-    <cfRule type="containsText" dxfId="564" priority="561" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="524" priority="561" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="563" priority="562" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="523" priority="562" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="562" priority="563" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="522" priority="563" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="561" priority="564" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="521" priority="564" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="560" priority="565" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="520" priority="565" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="containsText" dxfId="539" priority="536" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="519" priority="536" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="538" priority="537" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="518" priority="537" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="537" priority="538" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="517" priority="538" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="536" priority="539" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="516" priority="539" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="535" priority="540" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="515" priority="540" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" dxfId="534" priority="531" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="514" priority="531" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="533" priority="532" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="513" priority="532" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="532" priority="533" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="512" priority="533" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="531" priority="534" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="511" priority="534" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="530" priority="535" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="510" priority="535" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" dxfId="529" priority="526" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="509" priority="526" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="528" priority="527" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="508" priority="527" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="527" priority="528" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="507" priority="528" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="526" priority="529" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="506" priority="529" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C33)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="525" priority="530" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="505" priority="530" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="containsText" dxfId="524" priority="521" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="504" priority="521" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="523" priority="522" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="503" priority="522" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="522" priority="523" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="502" priority="523" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="521" priority="524" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="501" priority="524" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="520" priority="525" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="500" priority="525" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="containsText" dxfId="519" priority="516" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="499" priority="516" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="518" priority="517" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="498" priority="517" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="517" priority="518" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="497" priority="518" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="516" priority="519" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="496" priority="519" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="515" priority="520" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="495" priority="520" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="containsText" dxfId="514" priority="511" operator="containsText" text="Not sure">
+    <cfRule type="containsText" dxfId="494" priority="511" operator="containsText" text="Not sure">
       <formula>NOT(ISERROR(SEARCH("Not sure",C37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="513" priority="512" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="493" priority="512" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",C37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="512" priority="513" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="492" priority="513" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",C37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="511" priority="514" operator="containsText" text="Not applicable">
+    <cfRule type="containsText" dxfId="491" priority="514" operator="containsText" text="Not applicable">
       <formula>NOT(ISERROR(SEARCH("Not applicable",C37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="510" priority="515" operator="containsText" text="Not checked">
+    <cfRule type="containsText" dxfId="490" priority="515" operator="containsText" text="Not checked">
       <formula>NOT(ISERROR(SEARCH("Not checked",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15662,117 +11114,117 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
@@ -15906,27 +11358,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
